--- a/service-system/target/classes/static/摩擦系数-4车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-4车道.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E3050-A22A-4BD9-8FCD-EFDB6FA84705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD1486-5D32-4AE9-B9CF-212CF7B126CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
   <si>
     <t>沥青路面摩擦系数质量鉴定表</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>√n</t>
+  </si>
+  <si>
+    <t>分部工程名称：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,6 +642,45 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,13 +688,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,48 +731,6 @@
     </xf>
     <xf numFmtId="183" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,7 +1200,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,23 +1216,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -1236,103 +1240,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1349,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1905,20 +1909,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -1926,20 +1930,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -1947,18 +1951,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -1966,18 +1970,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -1985,18 +1989,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -2004,18 +2008,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -2023,41 +2027,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:O44"/>
     <mergeCell ref="A4:A6"/>
@@ -2074,13 +2058,32 @@
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2093,7 +2096,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,23 +2112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -2133,103 +2136,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -2255,7 +2258,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -2802,20 +2805,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -2823,20 +2826,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -2844,18 +2847,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -2863,18 +2866,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -2882,18 +2885,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -2901,18 +2904,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -2920,41 +2923,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:O43"/>
     <mergeCell ref="F44:G44"/>
@@ -2971,13 +2954,32 @@
     <mergeCell ref="L39:O39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2990,7 +2992,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3006,23 +3008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -3030,103 +3032,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +3141,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -3152,7 +3154,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -3699,20 +3701,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -3720,20 +3722,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -3741,18 +3743,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -3760,18 +3762,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -3779,18 +3781,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -3798,18 +3800,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -3817,41 +3819,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:O43"/>
     <mergeCell ref="F44:G44"/>
@@ -3868,13 +3850,32 @@
     <mergeCell ref="L39:O39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3887,7 +3888,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3903,23 +3904,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -3927,103 +3928,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4037,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4049,7 +4050,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4596,20 +4597,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -4617,20 +4618,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -4638,18 +4639,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -4657,18 +4658,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -4676,18 +4677,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -4695,18 +4696,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -4714,41 +4715,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:O43"/>
     <mergeCell ref="F44:G44"/>
@@ -4765,13 +4746,32 @@
     <mergeCell ref="L39:O39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4784,7 +4784,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4800,23 +4800,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -4824,103 +4824,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5493,20 +5493,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -5514,20 +5514,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -5535,18 +5535,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -5554,18 +5554,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -5573,18 +5573,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -5592,18 +5592,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -5611,41 +5611,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:O43"/>
     <mergeCell ref="F44:G44"/>
@@ -5662,13 +5642,32 @@
     <mergeCell ref="L39:O39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5680,8 +5679,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5697,23 +5696,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -5721,103 +5720,103 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5830,7 +5829,7 @@
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5843,7 +5842,7 @@
       <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
@@ -6390,20 +6389,20 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -6411,20 +6410,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -6432,18 +6431,18 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="14" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -6451,18 +6450,18 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="14" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -6470,18 +6469,18 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
@@ -6489,18 +6488,18 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -6508,41 +6507,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:O43"/>
     <mergeCell ref="F44:G44"/>
@@ -6559,13 +6538,32 @@
     <mergeCell ref="L39:O39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
